--- a/src/duelstats.xlsx
+++ b/src/duelstats.xlsx
@@ -350,7 +350,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
